--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1509367.476173099</v>
+        <v>1613547.11062417</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>314.2530347261458</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>250.8584581187525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414544</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>41.13920556219475</v>
+        <v>81.46084344268475</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>279.3751023006579</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>303.025617961964</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>128.7428416309279</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>59.32996291532885</v>
+        <v>110.1157992952063</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>36.80019004113353</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>155.5594962886089</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695798</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.16281301712621</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977439</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>23.08134457786378</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>14.75529838241474</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>45.16086499484926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>34.2105855891487</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>207.0967504439659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712621</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>18.70843787977307</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186394</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>136.9649966249136</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>95.81917536083792</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1935.36653093099</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,22 +4327,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339056</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>2599.371408077976</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>1935.36653093099</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>879.3322527250585</v>
+        <v>3243.322141364034</v>
       </c>
       <c r="V4" t="n">
-        <v>624.6477645191717</v>
+        <v>2988.637653158147</v>
       </c>
       <c r="W4" t="n">
-        <v>624.6477645191717</v>
+        <v>2699.220483121187</v>
       </c>
       <c r="X4" t="n">
-        <v>624.6477645191717</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
         <v>1232.150970528558</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2703.250922730625</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2350.482267460511</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.016509199431</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4640,10 @@
         <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>440.098254770655</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379416</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="W7" t="n">
-        <v>87.68248070098099</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,10 +4813,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4835,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3155.385897666236</v>
+        <v>3104.087073040097</v>
       </c>
       <c r="V8" t="n">
-        <v>2824.323010322666</v>
+        <v>3104.087073040097</v>
       </c>
       <c r="W8" t="n">
-        <v>2824.323010322666</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,16 +4886,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>417.6040489720648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C10" t="n">
-        <v>417.6040489720648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>417.6040489720648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>417.6040489720648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>417.6040489720648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>249.9012123467838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>103.6840255646415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>417.6040489720648</v>
+        <v>763.7562014862567</v>
       </c>
       <c r="V10" t="n">
-        <v>417.6040489720648</v>
+        <v>763.7562014862567</v>
       </c>
       <c r="W10" t="n">
-        <v>417.6040489720648</v>
+        <v>763.7562014862567</v>
       </c>
       <c r="X10" t="n">
-        <v>417.6040489720648</v>
+        <v>763.7562014862567</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.6040489720648</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756268</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245688</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.175106640328</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.55359426688</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>564.5188827892232</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5834,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
         <v>2092.798483612594</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>229.7425191625314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +6001,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6476,34 +6478,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714573</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1938.2863919474</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>710.248605371872</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998291</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998291</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>481.447947124485</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>481.447947124485</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>314.251847839365</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>2977.325134535463</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>2808.388951607556</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921476</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>121.5862749664495</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23656,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5341284403486</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>131.6786642641544</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>10.85445046951733</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>180.5487903941879</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>79.4262478926251</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>32.8926045706047</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>3.329716221310264</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>69.70496293143093</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="15">
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.150411784</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="I2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985039</v>
@@ -26347,13 +26349,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="O2" t="n">
-        <v>524645.2897985037</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812539</v>
+        <v>-996598.2799812544</v>
       </c>
       <c r="C6" t="n">
         <v>332146.4657463385</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463384</v>
+        <v>332146.4657463381</v>
       </c>
       <c r="E6" t="n">
-        <v>83283.60212537413</v>
+        <v>83283.60212537347</v>
       </c>
       <c r="F6" t="n">
+        <v>408696.0639327304</v>
+      </c>
+      <c r="G6" t="n">
+        <v>408696.0639327296</v>
+      </c>
+      <c r="H6" t="n">
         <v>408696.0639327295</v>
       </c>
-      <c r="G6" t="n">
-        <v>408696.0639327295</v>
-      </c>
-      <c r="H6" t="n">
-        <v>408696.0639327297</v>
-      </c>
       <c r="I6" t="n">
-        <v>408696.0639327294</v>
+        <v>408696.0639327296</v>
       </c>
       <c r="J6" t="n">
         <v>191164.861535452</v>
       </c>
       <c r="K6" t="n">
-        <v>408696.0639327294</v>
+        <v>408696.0639327295</v>
       </c>
       <c r="L6" t="n">
         <v>408696.0639327294</v>
       </c>
       <c r="M6" t="n">
-        <v>323641.0359972177</v>
+        <v>323641.0359972175</v>
       </c>
       <c r="N6" t="n">
+        <v>408696.0639327294</v>
+      </c>
+      <c r="O6" t="n">
         <v>408696.0639327295</v>
       </c>
-      <c r="O6" t="n">
-        <v>408696.0639327293</v>
-      </c>
       <c r="P6" t="n">
-        <v>408696.0639327294</v>
+        <v>408696.0639327296</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>51.01985704486179</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.379480537301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>245.0726326434181</v>
+        <v>204.7509947629281</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>85.89778947034961</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>24.72664050817087</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>123.3948016929001</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>191.6652090435731</v>
+        <v>140.8793726636956</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>59.55223036870459</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>130.652341917004</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29989,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30174,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551085</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32552,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>558.3177848342789</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868572</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>289.7537444526271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>289.7537444526271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>270.97169333569</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L39" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318074951</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>426.9760727509455</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648388</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>151.9123054782681</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>151.9123054782681</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>132.4173135558158</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010406</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L39" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L45" t="n">
-        <v>71.39556506237767</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1613547.11062417</v>
+        <v>1609534.500610177</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>314.2530347261458</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>372.5851295451229</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414544</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>153.2230134806012</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>81.46084344268475</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>279.3751023006579</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>46.42246812243138</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>128.7428416309279</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>22.05816311386932</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>110.1157992952063</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>54.45803047044394</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>155.5594962886089</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695798</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>18.70843787977439</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856549</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>9.795251606876045</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>23.08134457786378</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>29.24923305751697</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712597</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428568</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.7518808581205</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474263</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>34.2105855891487</v>
+        <v>107.4021082756247</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>63.16281301712621</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216696</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>253.2918698186394</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="H40" t="n">
-        <v>136.9649966249136</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>95.81917536083792</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301535</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
-        <v>41.55695577161193</v>
+        <v>123.7971820797035</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1935.36653093099</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906802</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.36653093099</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686082</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064753</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2471.230932223169</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="C4" t="n">
-        <v>2471.230932223169</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="D4" t="n">
-        <v>2471.230932223169</v>
+        <v>516.0858781999628</v>
       </c>
       <c r="E4" t="n">
-        <v>2471.230932223169</v>
+        <v>368.1727846175697</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.230932223169</v>
+        <v>221.2828371196594</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>3243.322141364034</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>2988.637653158147</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="W4" t="n">
-        <v>2699.220483121187</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="X4" t="n">
-        <v>2471.230932223169</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="Y4" t="n">
-        <v>2471.230932223169</v>
+        <v>666.2025176122986</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559526</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
         <v>1232.150970528558</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>440.098254770655</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>310.0549803959803</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>310.0549803959803</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>310.0549803959803</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>552.807938939214</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>141.8220341496064</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>130.789988035007</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,19 +4807,19 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.087073040097</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.087073040097</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.318417769983</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4877,16 +4877,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.3151575124869</v>
+        <v>290.4564109463973</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>121.5202280184904</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -4962,52 +4962,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>763.7562014862567</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>763.7562014862567</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>763.7562014862567</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>763.7562014862567</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.9636223427266</v>
+        <v>472.1048757766371</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756268</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245688</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.175106640328</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.55359426688</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740073</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121661</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998304</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998304</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138429</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703128</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5372,13 +5372,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>802.9288273958734</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,46 +5518,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400753</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121684</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270484</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138452</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.502065570315</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>983.3556038098246</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>814.4194208819177</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>664.302781469582</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>516.3896878871889</v>
       </c>
       <c r="F31" t="n">
-        <v>377.6556127449245</v>
+        <v>369.4997403892785</v>
       </c>
       <c r="G31" t="n">
-        <v>210.4595134598044</v>
+        <v>202.3036411041584</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1613.786198681612</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>631.7012443408905</v>
+        <v>983.3556038098246</v>
       </c>
       <c r="C34" t="n">
-        <v>631.7012443408905</v>
+        <v>814.4194208819177</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>664.302781469582</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>516.3896878871889</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892785</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681612</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580256</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580256</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E40" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F40" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G40" t="n">
-        <v>314.251847839365</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2977.325134535463</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>2808.388951607556</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>2658.272312195221</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>2658.272312195221</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>2658.272312195221</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3379.766178509233</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>3158.973599365703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1846595309963</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>943.510265746755</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M45" t="n">
-        <v>1540.888753373307</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2404.986360578632</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2185.384895601574</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664495</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>208.7894017452188</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>125.5341284403486</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038485</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392193818</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>106.0841272570752</v>
+        <v>32.89260457059918</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.89260457059925</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>32.8926045706047</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="H40" t="n">
-        <v>3.329716221310264</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>69.70496293143093</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.4693302300327</v>
+        <v>57.22910392194107</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="N2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073561</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26487,19 +26487,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-996598.2799812544</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463385</v>
+        <v>332146.4657463388</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463381</v>
+        <v>332146.4657463384</v>
       </c>
       <c r="E6" t="n">
-        <v>83283.60212537347</v>
+        <v>82936.22287101722</v>
       </c>
       <c r="F6" t="n">
-        <v>408696.0639327304</v>
+        <v>408348.6846783725</v>
       </c>
       <c r="G6" t="n">
-        <v>408696.0639327296</v>
+        <v>408348.6846783721</v>
       </c>
       <c r="H6" t="n">
-        <v>408696.0639327295</v>
+        <v>408348.6846783725</v>
       </c>
       <c r="I6" t="n">
-        <v>408696.0639327296</v>
+        <v>408348.6846783724</v>
       </c>
       <c r="J6" t="n">
-        <v>191164.861535452</v>
+        <v>190817.482281095</v>
       </c>
       <c r="K6" t="n">
-        <v>408696.0639327295</v>
+        <v>408348.6846783725</v>
       </c>
       <c r="L6" t="n">
-        <v>408696.0639327294</v>
+        <v>408348.6846783723</v>
       </c>
       <c r="M6" t="n">
-        <v>323641.0359972175</v>
+        <v>323293.6567428607</v>
       </c>
       <c r="N6" t="n">
-        <v>408696.0639327294</v>
+        <v>408348.6846783723</v>
       </c>
       <c r="O6" t="n">
-        <v>408696.0639327295</v>
+        <v>408348.6846783724</v>
       </c>
       <c r="P6" t="n">
-        <v>408696.0639327296</v>
+        <v>408348.6846783724</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483764</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>51.01985704486179</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>13.65280911093072</v>
       </c>
     </row>
     <row r="3">
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>12.80279477842706</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>204.7509947629281</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>85.89778947034961</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>302.8185005949816</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>123.3948016929001</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>272.5496012734511</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>140.8793726636956</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>94.15744254776843</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>130.652341917004</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-3.348081657766396e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29000,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551085</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.279049007179</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437247</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>338.1309585028985</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391487</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>300.7687781170408</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>344.6306853939244</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639739</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318074951</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674335</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238457</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992803</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>206.7892464195652</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066284</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>71.39556506237828</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010406</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558154</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>169.4270660337075</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>206.7892464195654</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419557</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1609534.500610177</v>
+        <v>1611295.030912963</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>19.4916849718826</v>
       </c>
       <c r="Y2" t="n">
-        <v>372.5851295451229</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>153.2230134806012</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.5022119339178703</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>102.6611521552025</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>46.42246812243138</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677224</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>54.45803047044437</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>74.2511672348987</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>22.05816311386932</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>54.45803047044394</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.795251606876045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>29.24923305751697</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712597</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428568</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.7518808581205</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>172.3645574474263</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>107.4021082756247</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>132.6315337216696</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>33.84547402811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176204</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.3555494301535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686082</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.2025176122986</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>666.2025176122986</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>516.0858781999628</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>368.1727846175697</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>221.2828371196594</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>417.09676419033</v>
       </c>
       <c r="V4" t="n">
-        <v>666.2025176122986</v>
+        <v>417.09676419033</v>
       </c>
       <c r="W4" t="n">
-        <v>666.2025176122986</v>
+        <v>417.09676419033</v>
       </c>
       <c r="X4" t="n">
-        <v>666.2025176122986</v>
+        <v>417.09676419033</v>
       </c>
       <c r="Y4" t="n">
-        <v>666.2025176122986</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>920.7766538636586</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>920.7766538636586</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>509.790749074051</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2377.852659508903</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.852659508903</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,13 +4664,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
         <v>2435.471302619336</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>552.807938939214</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D8" t="n">
-        <v>552.807938939214</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E8" t="n">
-        <v>552.807938939214</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="F8" t="n">
-        <v>141.8220341496064</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>130.789988035007</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.4564109463973</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>121.5202280184904</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201672</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.1048757766371</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>265.0731740618515</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400753</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121684</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121684</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121684</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121684</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270484</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832667</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487571</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510512</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.38585385471</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648823</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611863</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138452</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.502065570315</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6241,28 +6241,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,25 +6451,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098246</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819177</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>664.302781469582</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871889</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892785</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681612</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098246</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819177</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D34" t="n">
-        <v>664.302781469582</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3896878871889</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892785</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681612</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,37 +6925,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400721</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121652</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121652</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121652</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121652</v>
+        <v>269.7158417089197</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270452</v>
+        <v>269.7158417089197</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>128.0040105511178</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516145</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516145</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7894017452188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>136.2749052347519</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038485</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392193818</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>32.89260457059918</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>32.89260457059925</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>47.4203622904511</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
@@ -26331,31 +26331,31 @@
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="N2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="M2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.7441040525</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405252</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26487,19 +26487,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-996598.2799812544</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463388</v>
+        <v>332146.4657463384</v>
       </c>
       <c r="D6" t="n">
         <v>332146.4657463384</v>
       </c>
       <c r="E6" t="n">
-        <v>82936.22287101722</v>
+        <v>83248.86419993869</v>
       </c>
       <c r="F6" t="n">
-        <v>408348.6846783725</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="G6" t="n">
-        <v>408348.6846783721</v>
+        <v>408661.3260072937</v>
       </c>
       <c r="H6" t="n">
-        <v>408348.6846783725</v>
+        <v>408661.3260072936</v>
       </c>
       <c r="I6" t="n">
-        <v>408348.6846783724</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="J6" t="n">
-        <v>190817.482281095</v>
+        <v>191130.1236100162</v>
       </c>
       <c r="K6" t="n">
-        <v>408348.6846783725</v>
+        <v>408661.3260072937</v>
       </c>
       <c r="L6" t="n">
-        <v>408348.6846783723</v>
+        <v>408661.3260072939</v>
       </c>
       <c r="M6" t="n">
-        <v>323293.6567428607</v>
+        <v>323606.2980717821</v>
       </c>
       <c r="N6" t="n">
-        <v>408348.6846783723</v>
+        <v>408661.3260072939</v>
       </c>
       <c r="O6" t="n">
-        <v>408348.6846783724</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="P6" t="n">
-        <v>408348.6846783724</v>
+        <v>408661.3260072938</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,22 +26804,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>350.2394157065864</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.65280911093072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>12.80279477842706</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>285.709626271695</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>308.2605734982509</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>302.8185005949816</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351651</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>232.0649678661466</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>332.6248785068127</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>272.5496012734511</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>94.15744254776843</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>30.65029714618371</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-3.348081657766396e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29000,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391487</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>300.7687781170408</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>618.3341264639739</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066284</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558154</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>169.4270660337075</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>476.2000925419557</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
